--- a/May'21/29.05.2021/Hello Daffodils Balance Transfer May'2021.xlsx
+++ b/May'21/29.05.2021/Hello Daffodils Balance Transfer May'2021.xlsx
@@ -1425,8 +1425,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <pane ySplit="5" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
